--- a/AfDD_2024_Annex_Table_Tab11.xlsx
+++ b/AfDD_2024_Annex_Table_Tab11.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10F04B28-8F50-48E7-AF16-9CDD172D098E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F20BCE39-8751-4459-B6B3-04A0DE173991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="0" windowWidth="19200" windowHeight="21150" xr2:uid="{CA737CC1-5604-4615-BA48-BFDAD5B0C079}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{50108D56-A637-4ADB-8E47-AF25D26F7F8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab11" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="173">
   <si>
     <t>Table 11: Communications infrastructure</t>
   </si>
@@ -543,13 +543,10 @@
     <t>Source: International Telecommunication Union - ICT Indicators Online Database (retrieved 02/02/2024), GSMA Intelligence (data updated in june 2020), Gallup World Poll (accessed 15 December 2019).</t>
   </si>
   <si>
-    <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
+    <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2024</t>
   </si>
   <si>
     <t>To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here.</t>
-  </si>
-  <si>
-    <t>To download the entire dataset as a flat file in compressed CSV form, click here.</t>
   </si>
   <si>
     <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
@@ -565,32 +562,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0_);\(#,##0.0\)"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -603,6 +586,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFD42C2D"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -676,6 +667,13 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri Light"/>
@@ -684,10 +682,23 @@
     </font>
     <font>
       <b/>
+      <sz val="8"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <u/>
       <sz val="12"/>
-      <color theme="10"/>
+      <color rgb="FFD42C2D"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -702,18 +713,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
+        <fgColor rgb="FFD42C2D"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFBE3DB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -723,13 +734,11 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </left>
-      <right style="medium">
-        <color rgb="FF0070C0"/>
-      </right>
+      <right/>
       <top style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -738,7 +747,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -746,29 +755,51 @@
     <border>
       <left/>
       <right style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </right>
       <top style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </left>
       <right style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color rgb="FFD42C2D"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD42C2D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD42C2D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFD42C2D"/>
       </right>
       <top/>
       <bottom/>
@@ -776,16 +807,45 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </left>
       <right style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </right>
-      <top style="medium">
-        <color rgb="FF0070C0"/>
-      </top>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD42C2D"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD42C2D"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD42C2D"/>
+      </right>
+      <top/>
       <bottom style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD42C2D"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD42C2D"/>
       </bottom>
       <diagonal/>
     </border>
@@ -793,230 +853,332 @@
       <left/>
       <right/>
       <top style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </right>
       <top style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </left>
       <right style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color rgb="FFD42C2D"/>
+      </top>
       <bottom style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color rgb="FFD42C2D"/>
+      </left>
       <right/>
-      <top/>
+      <top style="medium">
+        <color rgb="FFD42C2D"/>
+      </top>
       <bottom style="medium">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="37" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1332,19 +1494,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E724E7D-CFB8-4E9C-9252-60E2F6A5C3C3}">
-  <sheetPr codeName="Sheet18">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B1F5D6-BC5F-47DE-8D5D-823D7EC38829}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="12.28515625" style="57" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="12.42578125" style="92" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="93" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.42578125" style="92" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1352,3325 +1516,3326 @@
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="5"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:10" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="15">
         <v>0.38719799999999999</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="16">
         <v>39.293500000000002</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="17">
         <v>66.686999999999998</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="16">
         <v>0.26409899999999997</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="18">
         <v>26.271000000000001</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="19">
         <v>194449</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="16">
         <v>61</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="21">
         <v>4.2038599999999997</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="22">
         <v>77.327200000000005</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="22">
         <v>165.30500000000001</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="22">
         <v>3.48725</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="23">
         <v>108.161</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="24">
         <v>638610</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="22">
         <v>80.17</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="23">
         <v>42.330620000000003</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="26">
         <v>1.13575</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="27">
         <v>58.2502</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="27">
         <v>122.17</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="27">
         <v>3.14113</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="28">
         <v>113.53400000000001</v>
       </c>
-      <c r="H5" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="18">
+      <c r="H5" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="27">
         <v>30</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="28">
         <v>46.540019999999998</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="26">
         <v>0.39413199999999998</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="27">
         <v>47.036799999999999</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="27">
         <v>67.517799999999994</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="27">
         <v>0.29247699999999999</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="28">
         <v>67.118099999999998</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="29">
         <v>9457</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="27">
         <v>75</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="28">
         <v>20.128050000000002</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="26">
         <v>7.2985900000000006E-2</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="27">
         <v>27.660900000000002</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="27">
         <v>60.127299999999998</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="27">
         <v>4.6340899999999997E-2</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="28">
         <v>38.343699999999998</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="29">
         <v>76107.899999999994</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="27">
         <v>79.09</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="28">
         <v>16.457840000000001</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="26">
         <v>0.195905</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="27">
         <v>21.207000000000001</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="27">
         <v>45.3825</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="27">
         <v>8.8202699999999995E-2</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="28">
         <v>23.1631</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="29">
         <v>78503</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="27">
         <v>25</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="28">
         <v>17.348590000000002</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="26">
         <v>3.85697</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="27">
         <v>62.215000000000003</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="27">
         <v>113.197</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="27">
         <v>3.3429500000000001</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="28">
         <v>77.412700000000001</v>
       </c>
-      <c r="H9" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="18">
+      <c r="H9" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="27">
         <v>75</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="28">
         <v>54.700890000000001</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="26">
         <v>3.2525200000000001</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="27">
         <v>74.703000000000003</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="27">
         <v>167.39599999999999</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="27">
         <v>2.1865199999999998</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="28">
         <v>135.06399999999999</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="29">
         <v>2140000</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="27">
         <v>95</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="28">
         <v>48.762569999999997</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="21">
         <v>0.41993900000000001</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="22">
         <v>31.234200000000001</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="22">
         <v>99.102400000000003</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="22">
         <v>0.48099500000000001</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="23">
         <v>55.2622</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="24">
         <v>213699</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="22">
         <v>40</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="23">
         <v>29.62567</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="31">
         <v>1.2660199999999999</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="32">
         <v>32.561500000000002</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="32">
         <v>87.624499999999998</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="32">
         <v>1.78501</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="33">
         <v>59.558900000000001</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="34">
         <v>272340</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="32">
         <v>50</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="33">
         <v>31.997789999999998</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="37">
         <v>1.38645407157529</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="38">
         <v>45.561956227173503</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="39">
         <v>100.898155529525</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="38">
         <v>1.0581467153904001</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="40">
         <v>69.227278666769095</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="41">
         <v>787128.77453342197</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="38">
         <v>64.960921736152997</v>
       </c>
-      <c r="J13" s="24">
+      <c r="J13" s="40">
         <v>33.866268241319297</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="43">
         <v>3.1071600000000001E-2</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="44">
         <v>11.275</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="27">
         <v>58.143500000000003</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="44">
         <v>0.11573700000000001</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="28">
         <v>8.3289600000000004</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="45">
         <v>9610</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="44">
         <v>25</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="28">
         <v>16.298079999999999</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="26">
         <v>2.1607599999999998</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="27">
         <v>43.862900000000003</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="27">
         <v>88.920699999999997</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="27">
         <v>3.2104499999999998</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="28">
         <v>36.0364</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="29">
         <v>170000</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="27">
         <v>75</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="28">
         <v>28.949380000000001</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="18">
+      <c r="C16" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="27">
         <v>17.920000000000002</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="28">
         <v>8.2267499999999991</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="27">
+      <c r="C17" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="17">
         <v>12.1839</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="17">
         <v>68.140500000000003</v>
       </c>
-      <c r="F17" s="27">
+      <c r="F17" s="17">
         <v>2.9621999999999999E-2</v>
       </c>
-      <c r="G17" s="28">
+      <c r="G17" s="18">
         <v>3.3976899999999999</v>
       </c>
-      <c r="H17" s="29">
+      <c r="H17" s="48">
         <v>44582</v>
       </c>
-      <c r="I17" s="27">
+      <c r="I17" s="17">
         <v>30</v>
       </c>
-      <c r="J17" s="28">
+      <c r="J17" s="18">
         <v>8.0051839999999999</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="27">
+      <c r="C18" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="17">
         <v>36.246899999999997</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="17">
         <v>94.640199999999993</v>
       </c>
-      <c r="F18" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="27">
+      <c r="F18" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="17">
         <v>64.5</v>
       </c>
-      <c r="J18" s="28">
+      <c r="J18" s="18">
         <v>25.9636</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="21">
         <v>3.3329900000000003E-2</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="22">
         <v>27.24</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="22">
         <v>50.342399999999998</v>
       </c>
-      <c r="F19" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="15">
+      <c r="F19" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="23">
         <v>26.194400000000002</v>
       </c>
-      <c r="H19" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="14">
+      <c r="H19" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="22">
         <v>30.96</v>
       </c>
-      <c r="J19" s="15">
+      <c r="J19" s="23">
         <v>19.668240000000001</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="47">
         <v>0.10842400000000001</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="17">
         <v>66.819299999999998</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="17">
         <v>53.342700000000001</v>
       </c>
-      <c r="F20" s="27">
+      <c r="F20" s="17">
         <v>0.67997799999999997</v>
       </c>
-      <c r="G20" s="28">
+      <c r="G20" s="18">
         <v>0.89461599999999997</v>
       </c>
-      <c r="H20" s="29">
+      <c r="H20" s="48">
         <v>4500</v>
       </c>
-      <c r="I20" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="J20" s="28" t="s">
+      <c r="I20" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="47">
         <v>3.3622100000000001</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D21" s="17">
         <v>73.695099999999996</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E21" s="17">
         <v>125.387</v>
       </c>
-      <c r="F21" s="27">
+      <c r="F21" s="17">
         <v>1.81646</v>
       </c>
-      <c r="G21" s="28">
+      <c r="G21" s="18">
         <v>94.403099999999995</v>
       </c>
-      <c r="H21" s="29">
+      <c r="H21" s="48">
         <v>55748</v>
       </c>
-      <c r="I21" s="27">
+      <c r="I21" s="17">
         <v>35</v>
       </c>
-      <c r="J21" s="28">
+      <c r="J21" s="18">
         <v>50.621380000000002</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="31">
         <v>2.0151300000000001</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="32">
         <v>56.989899999999999</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="32">
         <v>86.368200000000002</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="32">
         <v>1.09992</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="33">
         <v>40.576999999999998</v>
       </c>
-      <c r="H22" s="20">
+      <c r="H22" s="34">
         <v>3701</v>
       </c>
-      <c r="I22" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="J22" s="19" t="s">
+      <c r="I22" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="33" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="37">
         <v>0.50441623560075</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="38">
         <v>28.605956178470301</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="39">
         <v>61.962611876459498</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="38">
         <v>1.54991301883348</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G23" s="40">
         <v>24.737733209581901</v>
       </c>
-      <c r="H23" s="25">
+      <c r="H23" s="41">
         <v>92345.754905238704</v>
       </c>
-      <c r="I23" s="23">
+      <c r="I23" s="38">
         <v>38.4420105179953</v>
       </c>
-      <c r="J23" s="24">
+      <c r="J23" s="40">
         <v>20.0355308870149</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="43">
         <v>0.218697</v>
       </c>
-      <c r="D24" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="18">
+      <c r="D24" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="27">
         <v>100.238</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="44">
         <v>0.88076399999999999</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="28">
         <v>61.527000000000001</v>
       </c>
-      <c r="H24" s="20">
+      <c r="H24" s="45">
         <v>17386</v>
       </c>
-      <c r="I24" s="18">
+      <c r="I24" s="44">
         <v>65</v>
       </c>
-      <c r="J24" s="19">
+      <c r="J24" s="28">
         <v>32.669620000000002</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="26">
         <v>1.43293</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="27">
         <v>65.032200000000003</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="27">
         <v>47.455100000000002</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="27">
         <v>2.4919500000000001</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="28">
         <v>35.605499999999999</v>
       </c>
-      <c r="H25" s="20">
+      <c r="H25" s="29">
         <v>733000</v>
       </c>
-      <c r="I25" s="18">
+      <c r="I25" s="27">
         <v>10.37</v>
       </c>
-      <c r="J25" s="19" t="s">
+      <c r="J25" s="28" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="18">
+      <c r="C26" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="27">
         <v>26.594200000000001</v>
       </c>
-      <c r="E26" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="J26" s="19" t="s">
+      <c r="E26" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="28" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="26">
         <v>0.45891300000000002</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="27">
         <v>19.3781</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="27">
         <v>57.889699999999998</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="27">
         <v>0.69878200000000001</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27" s="28">
         <v>26.908799999999999</v>
       </c>
-      <c r="H27" s="20">
+      <c r="H27" s="29">
         <v>517200</v>
       </c>
-      <c r="I27" s="18">
+      <c r="I27" s="27">
         <v>69.94</v>
       </c>
-      <c r="J27" s="19">
+      <c r="J27" s="28">
         <v>9.9774370000000001</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="26">
         <v>1.9217</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="27">
         <v>40.813699999999997</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="27">
         <v>121.67400000000001</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="27">
         <v>0.11680500000000001</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="28">
         <v>59.0227</v>
       </c>
-      <c r="H28" s="20">
+      <c r="H28" s="29">
         <v>23900000</v>
       </c>
-      <c r="I28" s="18">
+      <c r="I28" s="27">
         <v>69.56</v>
       </c>
-      <c r="J28" s="19">
+      <c r="J28" s="28">
         <v>50.82938</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="26">
         <v>0.110487</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="27">
         <v>20.5777</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="27">
         <v>66.554599999999994</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="27">
         <v>0.13277900000000001</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="28">
         <v>24.0824</v>
       </c>
-      <c r="H29" s="20">
+      <c r="H29" s="29">
         <v>84739</v>
       </c>
-      <c r="I29" s="18">
+      <c r="I29" s="27">
         <v>66.989999999999995</v>
       </c>
-      <c r="J29" s="19">
+      <c r="J29" s="28">
         <v>12.790419999999999</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="26">
         <v>25.725899999999999</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="27">
         <v>75.5</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E30" s="27">
         <v>161.358</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="27">
         <v>35.560699999999997</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G30" s="28">
         <v>117.325</v>
       </c>
-      <c r="H30" s="20">
+      <c r="H30" s="29">
         <v>235682</v>
       </c>
-      <c r="I30" s="18">
+      <c r="I30" s="27">
         <v>90</v>
       </c>
-      <c r="J30" s="19">
+      <c r="J30" s="28">
         <v>64.126570000000001</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="26">
         <v>0.34675899999999998</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D31" s="27">
         <v>34.4405</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E31" s="27">
         <v>79.860100000000003</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="27">
         <v>7.4959899999999996E-2</v>
       </c>
-      <c r="G31" s="19">
+      <c r="G31" s="28">
         <v>60.097299999999997</v>
       </c>
-      <c r="H31" s="20">
+      <c r="H31" s="29">
         <v>94505.4</v>
       </c>
-      <c r="I31" s="18">
+      <c r="I31" s="27">
         <v>99</v>
       </c>
-      <c r="J31" s="19">
+      <c r="J31" s="28">
         <v>12.628209999999999</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C32" s="26">
         <v>34.956800000000001</v>
       </c>
-      <c r="D32" s="18">
+      <c r="D32" s="27">
         <v>86.665400000000005</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E32" s="27">
         <v>191.50800000000001</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="27">
         <v>17.762699999999999</v>
       </c>
-      <c r="G32" s="19">
+      <c r="G32" s="28">
         <v>99.216800000000006</v>
       </c>
-      <c r="H32" s="20">
+      <c r="H32" s="29">
         <v>12019</v>
       </c>
-      <c r="I32" s="18">
+      <c r="I32" s="27">
         <v>75.64</v>
       </c>
-      <c r="J32" s="19" t="s">
+      <c r="J32" s="28" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="26">
         <v>0.67623200000000006</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D33" s="27">
         <v>27.6</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E33" s="27">
         <v>50.257100000000001</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="27">
         <v>0.517119</v>
       </c>
-      <c r="G33" s="19">
+      <c r="G33" s="28">
         <v>2.5287700000000002</v>
       </c>
-      <c r="H33" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="I33" s="18">
+      <c r="H33" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" s="27">
         <v>75</v>
       </c>
-      <c r="J33" s="19">
+      <c r="J33" s="28">
         <v>17.94828</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="27">
+      <c r="C34" s="47">
         <v>1.8326499999999999E-3</v>
       </c>
-      <c r="D34" s="27">
+      <c r="D34" s="17">
         <v>12.140700000000001</v>
       </c>
-      <c r="E34" s="27">
+      <c r="E34" s="17">
         <v>48.968800000000002</v>
       </c>
-      <c r="F34" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="28">
+      <c r="F34" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="18">
         <v>6.9681600000000001</v>
       </c>
-      <c r="H34" s="29">
+      <c r="H34" s="48">
         <v>800</v>
       </c>
-      <c r="I34" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="J34" s="28">
+      <c r="I34" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" s="18">
         <v>4.9471340000000001</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C35" s="26">
         <v>6.3674700000000001E-2</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D35" s="27">
         <v>28.704499999999999</v>
       </c>
-      <c r="E35" s="18">
+      <c r="E35" s="27">
         <v>73.9666</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="27">
         <v>0.33238299999999998</v>
       </c>
-      <c r="G35" s="19">
+      <c r="G35" s="28">
         <v>47.603400000000001</v>
       </c>
-      <c r="H35" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="I35" s="18">
+      <c r="H35" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" s="27">
         <v>34</v>
       </c>
-      <c r="J35" s="19" t="s">
+      <c r="J35" s="28" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="26">
         <v>2.1820900000000001</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="27">
         <v>31.891300000000001</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="27">
         <v>91.899799999999999</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="27">
         <v>0.12931100000000001</v>
       </c>
-      <c r="G36" s="19">
+      <c r="G36" s="28">
         <v>28.556000000000001</v>
       </c>
-      <c r="H36" s="20">
+      <c r="H36" s="29">
         <v>463088</v>
       </c>
-      <c r="I36" s="18">
+      <c r="I36" s="27">
         <v>28</v>
       </c>
-      <c r="J36" s="19">
+      <c r="J36" s="28">
         <v>19.938009999999998</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="18">
+      <c r="C37" s="31">
         <v>8.5198599999999999E-2</v>
       </c>
-      <c r="D37" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="18">
+      <c r="D37" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="32">
         <v>69.9863</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="32">
         <v>0.24690200000000001</v>
       </c>
-      <c r="G37" s="19">
+      <c r="G37" s="33">
         <v>54.350700000000003</v>
       </c>
-      <c r="H37" s="20">
+      <c r="H37" s="34">
         <v>2090000</v>
       </c>
-      <c r="I37" s="18">
+      <c r="I37" s="32">
         <v>70</v>
       </c>
-      <c r="J37" s="19">
+      <c r="J37" s="33">
         <v>30.846520000000002</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="23">
+      <c r="C38" s="37">
         <v>0.89574827399302004</v>
       </c>
-      <c r="D38" s="23">
+      <c r="D38" s="38">
         <v>27.210584371974299</v>
       </c>
-      <c r="E38" s="23">
+      <c r="E38" s="39">
         <v>76.078111078408696</v>
       </c>
-      <c r="F38" s="23">
+      <c r="F38" s="38">
         <v>0.48320776528770998</v>
       </c>
-      <c r="G38" s="24">
+      <c r="G38" s="40">
         <v>36.611690242199003</v>
       </c>
-      <c r="H38" s="25">
+      <c r="H38" s="41">
         <v>4281275.5735307001</v>
       </c>
-      <c r="I38" s="23">
+      <c r="I38" s="38">
         <v>59.801749855731799</v>
       </c>
-      <c r="J38" s="24">
+      <c r="J38" s="40">
         <v>21.4206268968362</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="27">
+      <c r="C39" s="15">
         <v>10.4841</v>
       </c>
-      <c r="D39" s="27">
+      <c r="D39" s="16">
         <v>71.243200000000002</v>
       </c>
-      <c r="E39" s="27">
+      <c r="E39" s="17">
         <v>109.16500000000001</v>
       </c>
-      <c r="F39" s="27">
+      <c r="F39" s="16">
         <v>12.418200000000001</v>
       </c>
-      <c r="G39" s="28">
+      <c r="G39" s="18">
         <v>99.677700000000002</v>
       </c>
-      <c r="H39" s="29">
+      <c r="H39" s="19">
         <v>1990000</v>
       </c>
-      <c r="I39" s="27">
+      <c r="I39" s="16">
         <v>81.680000000000007</v>
       </c>
-      <c r="J39" s="28">
+      <c r="J39" s="18">
         <v>54.571330000000003</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="18">
+      <c r="C40" s="26">
         <v>10.84</v>
       </c>
-      <c r="D40" s="18">
+      <c r="D40" s="27">
         <v>72.198099999999997</v>
       </c>
-      <c r="E40" s="18">
+      <c r="E40" s="27">
         <v>92.009699999999995</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="27">
         <v>10.470700000000001</v>
       </c>
-      <c r="G40" s="19">
+      <c r="G40" s="28">
         <v>64.826300000000003</v>
       </c>
-      <c r="H40" s="20">
+      <c r="H40" s="29">
         <v>5700000</v>
       </c>
-      <c r="I40" s="18">
+      <c r="I40" s="27">
         <v>84.91</v>
       </c>
-      <c r="J40" s="19">
+      <c r="J40" s="28">
         <v>36.668050000000001</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="27">
+      <c r="C41" s="47">
         <v>4.7913199999999998</v>
       </c>
-      <c r="D41" s="27">
+      <c r="D41" s="17">
         <v>88.428100000000001</v>
       </c>
-      <c r="E41" s="27">
+      <c r="E41" s="17">
         <v>204.62899999999999</v>
       </c>
-      <c r="F41" s="27">
+      <c r="F41" s="17">
         <v>17.882000000000001</v>
       </c>
-      <c r="G41" s="28">
+      <c r="G41" s="18">
         <v>125.59699999999999</v>
       </c>
-      <c r="H41" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="I41" s="27">
+      <c r="H41" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41" s="17">
         <v>83.59</v>
       </c>
-      <c r="J41" s="28">
+      <c r="J41" s="18">
         <v>68.667180000000002</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="27">
+      <c r="C42" s="47">
         <v>0.29361500000000001</v>
       </c>
-      <c r="D42" s="27">
+      <c r="D42" s="17">
         <v>44.361600000000003</v>
       </c>
-      <c r="E42" s="27">
+      <c r="E42" s="17">
         <v>113.12</v>
       </c>
-      <c r="F42" s="27">
+      <c r="F42" s="17">
         <v>1.00299</v>
       </c>
-      <c r="G42" s="28">
+      <c r="G42" s="18">
         <v>73.421499999999995</v>
       </c>
-      <c r="H42" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="I42" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="J42" s="28">
+      <c r="H42" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J42" s="18">
         <v>31.663229999999999</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="18">
+      <c r="C43" s="26">
         <v>6.44923</v>
       </c>
-      <c r="D43" s="18">
+      <c r="D43" s="27">
         <v>90.650999999999996</v>
       </c>
-      <c r="E43" s="18">
+      <c r="E43" s="27">
         <v>141.38200000000001</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F43" s="27">
         <v>7.0615399999999999</v>
       </c>
-      <c r="G43" s="19">
+      <c r="G43" s="28">
         <v>88.643600000000006</v>
       </c>
-      <c r="H43" s="20">
+      <c r="H43" s="29">
         <v>4560000</v>
       </c>
-      <c r="I43" s="18">
+      <c r="I43" s="27">
         <v>98</v>
       </c>
-      <c r="J43" s="19">
+      <c r="J43" s="28">
         <v>47.104289999999999</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="18">
+      <c r="C44" s="31">
         <v>13.664</v>
       </c>
-      <c r="D44" s="18">
+      <c r="D44" s="32">
         <v>73.837900000000005</v>
       </c>
-      <c r="E44" s="18">
+      <c r="E44" s="32">
         <v>129.34800000000001</v>
       </c>
-      <c r="F44" s="18">
+      <c r="F44" s="32">
         <v>14.482799999999999</v>
       </c>
-      <c r="G44" s="19">
+      <c r="G44" s="33">
         <v>85.826099999999997</v>
       </c>
-      <c r="H44" s="20">
+      <c r="H44" s="34">
         <v>1200000</v>
       </c>
-      <c r="I44" s="18">
+      <c r="I44" s="32">
         <v>90</v>
       </c>
-      <c r="J44" s="19">
+      <c r="J44" s="33">
         <v>50.508940000000003</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="23">
+      <c r="C45" s="37">
         <v>9.7504482818520906</v>
       </c>
-      <c r="D45" s="23">
+      <c r="D45" s="38">
         <v>75.177620635548095</v>
       </c>
-      <c r="E45" s="23">
+      <c r="E45" s="50">
         <v>110.18298479195801</v>
       </c>
-      <c r="F45" s="23">
+      <c r="F45" s="38">
         <v>10.5396081578272</v>
       </c>
-      <c r="G45" s="24">
+      <c r="G45" s="51">
         <v>79.423200824184804</v>
       </c>
-      <c r="H45" s="25">
+      <c r="H45" s="41">
         <v>4412270.15855374</v>
       </c>
-      <c r="I45" s="23">
+      <c r="I45" s="38">
         <v>86.814005211101502</v>
       </c>
-      <c r="J45" s="24">
+      <c r="J45" s="51">
         <v>43.896733695831898</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="C46" s="18">
+      <c r="C46" s="43">
         <v>0.15773400000000001</v>
       </c>
-      <c r="D46" s="18">
+      <c r="D46" s="44">
         <v>33.760199999999998</v>
       </c>
-      <c r="E46" s="18">
+      <c r="E46" s="27">
         <v>108.965</v>
       </c>
-      <c r="F46" s="18">
+      <c r="F46" s="44">
         <v>1.1428300000000001E-2</v>
       </c>
-      <c r="G46" s="19">
+      <c r="G46" s="28">
         <v>67.216099999999997</v>
       </c>
-      <c r="H46" s="20">
+      <c r="H46" s="45">
         <v>213240</v>
       </c>
-      <c r="I46" s="18">
+      <c r="I46" s="44">
         <v>45</v>
       </c>
-      <c r="J46" s="19">
+      <c r="J46" s="28">
         <v>18.788419999999999</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="C47" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="18">
+      <c r="C47" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="27">
         <v>19.9237</v>
       </c>
-      <c r="E47" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H47" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="I47" s="18">
+      <c r="E47" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I47" s="27">
         <v>17.920000000000002</v>
       </c>
-      <c r="J47" s="19">
+      <c r="J47" s="28">
         <v>18.44022</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B48" s="30" t="s">
+      <c r="B48" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="C48" s="27">
+      <c r="C48" s="47">
         <v>5.7548700000000004</v>
       </c>
-      <c r="D48" s="27">
+      <c r="D48" s="17">
         <v>72.102099999999993</v>
       </c>
-      <c r="E48" s="27">
+      <c r="E48" s="17">
         <v>99.231700000000004</v>
       </c>
-      <c r="F48" s="27">
+      <c r="F48" s="17">
         <v>9.6130800000000001</v>
       </c>
-      <c r="G48" s="28">
+      <c r="G48" s="18">
         <v>74.588200000000001</v>
       </c>
-      <c r="H48" s="29">
+      <c r="H48" s="48">
         <v>28733</v>
       </c>
-      <c r="I48" s="27">
+      <c r="I48" s="17">
         <v>60.84</v>
       </c>
-      <c r="J48" s="28" t="s">
+      <c r="J48" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="C49" s="18">
+      <c r="C49" s="26">
         <v>1.3511200000000001</v>
       </c>
-      <c r="D49" s="18">
+      <c r="D49" s="27">
         <v>38.4133</v>
       </c>
-      <c r="E49" s="18">
+      <c r="E49" s="27">
         <v>174.02500000000001</v>
       </c>
-      <c r="F49" s="18">
+      <c r="F49" s="27">
         <v>0.935025</v>
       </c>
-      <c r="G49" s="19">
+      <c r="G49" s="28">
         <v>91.378500000000003</v>
       </c>
-      <c r="H49" s="20">
+      <c r="H49" s="29">
         <v>508260</v>
       </c>
-      <c r="I49" s="18">
+      <c r="I49" s="27">
         <v>77.88</v>
       </c>
-      <c r="J49" s="19">
+      <c r="J49" s="28">
         <v>28.312000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="C50" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="18">
+      <c r="C50" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="27">
         <v>54.189900000000002</v>
       </c>
-      <c r="E50" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H50" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="I50" s="18">
+      <c r="E50" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I50" s="27">
         <v>54.15</v>
       </c>
-      <c r="J50" s="19">
+      <c r="J50" s="28">
         <v>34.044640000000001</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="C51" s="14">
+      <c r="C51" s="21">
         <v>0.61884600000000001</v>
       </c>
-      <c r="D51" s="14">
+      <c r="D51" s="22">
         <v>69.840500000000006</v>
       </c>
-      <c r="E51" s="14">
+      <c r="E51" s="22">
         <v>119.624</v>
       </c>
-      <c r="F51" s="14">
+      <c r="F51" s="22">
         <v>0.98583200000000004</v>
       </c>
-      <c r="G51" s="15">
+      <c r="G51" s="23">
         <v>68.379099999999994</v>
       </c>
-      <c r="H51" s="16">
+      <c r="H51" s="24">
         <v>1010000</v>
       </c>
-      <c r="I51" s="14">
+      <c r="I51" s="22">
         <v>77.98</v>
       </c>
-      <c r="J51" s="15">
+      <c r="J51" s="23">
         <v>32.587710000000001</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="C52" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" s="18">
+      <c r="C52" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="27">
         <v>33.923000000000002</v>
       </c>
-      <c r="E52" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H52" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="I52" s="18">
+      <c r="E52" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I52" s="27">
         <v>17.920000000000002</v>
       </c>
-      <c r="J52" s="19">
+      <c r="J52" s="28">
         <v>20.45448</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="C53" s="18">
+      <c r="C53" s="26">
         <v>0.21918099999999999</v>
       </c>
-      <c r="D53" s="18">
+      <c r="D53" s="27">
         <v>31.567</v>
       </c>
-      <c r="E53" s="18">
+      <c r="E53" s="27">
         <v>125.932</v>
       </c>
-      <c r="F53" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" s="19">
+      <c r="F53" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" s="28">
         <v>62.496699999999997</v>
       </c>
-      <c r="H53" s="20">
+      <c r="H53" s="29">
         <v>18886</v>
       </c>
-      <c r="I53" s="18">
+      <c r="I53" s="27">
         <v>46</v>
       </c>
-      <c r="J53" s="19" t="s">
+      <c r="J53" s="28" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="B54" s="17" t="s">
+      <c r="B54" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="C54" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" s="18">
+      <c r="C54" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="27">
         <v>30.127500000000001</v>
       </c>
-      <c r="E54" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" s="19">
+      <c r="E54" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" s="28">
         <v>54.991100000000003</v>
       </c>
-      <c r="H54" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="I54" s="18">
+      <c r="H54" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I54" s="27">
         <v>48.94</v>
       </c>
-      <c r="J54" s="19">
+      <c r="J54" s="28">
         <v>20.783860000000001</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B55" s="17" t="s">
+      <c r="B55" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="C55" s="18">
+      <c r="C55" s="26">
         <v>0.79063600000000001</v>
       </c>
-      <c r="D55" s="18">
+      <c r="D55" s="27">
         <v>33.052799999999998</v>
       </c>
-      <c r="E55" s="18">
+      <c r="E55" s="27">
         <v>114.497</v>
       </c>
-      <c r="F55" s="18">
+      <c r="F55" s="27">
         <v>1.3583499999999999</v>
       </c>
-      <c r="G55" s="19">
+      <c r="G55" s="28">
         <v>58.4786</v>
       </c>
-      <c r="H55" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="I55" s="18">
+      <c r="H55" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I55" s="27">
         <v>50</v>
       </c>
-      <c r="J55" s="19">
+      <c r="J55" s="28">
         <v>21.089400000000001</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="B56" s="17" t="s">
+      <c r="B56" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="C56" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" s="18">
+      <c r="C56" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="27">
         <v>16.937000000000001</v>
       </c>
-      <c r="E56" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F56" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" s="19">
+      <c r="E56" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" s="28">
         <v>27.999099999999999</v>
       </c>
-      <c r="H56" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="I56" s="18">
+      <c r="H56" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I56" s="27">
         <v>14.93</v>
       </c>
-      <c r="J56" s="19">
+      <c r="J56" s="28">
         <v>9.2337070000000008</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="B57" s="17" t="s">
+      <c r="B57" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="C57" s="18">
+      <c r="C57" s="26">
         <v>0.18882399999999999</v>
       </c>
-      <c r="D57" s="18">
+      <c r="D57" s="27">
         <v>35.456299999999999</v>
       </c>
-      <c r="E57" s="18">
+      <c r="E57" s="27">
         <v>101.68600000000001</v>
       </c>
-      <c r="F57" s="18">
+      <c r="F57" s="27">
         <v>4.4383400000000003E-2</v>
       </c>
-      <c r="G57" s="19">
+      <c r="G57" s="28">
         <v>41.364699999999999</v>
       </c>
-      <c r="H57" s="20">
+      <c r="H57" s="29">
         <v>820164</v>
       </c>
-      <c r="I57" s="18">
+      <c r="I57" s="27">
         <v>67.28</v>
       </c>
-      <c r="J57" s="19">
+      <c r="J57" s="28">
         <v>31.543589999999998</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="B58" s="17" t="s">
+      <c r="B58" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="C58" s="18">
+      <c r="C58" s="26">
         <v>1.4307799999999999</v>
       </c>
-      <c r="D58" s="18">
+      <c r="D58" s="27">
         <v>59.983199999999997</v>
       </c>
-      <c r="E58" s="18">
+      <c r="E58" s="27">
         <v>120.434</v>
       </c>
-      <c r="F58" s="18">
+      <c r="F58" s="27">
         <v>1.7154</v>
       </c>
-      <c r="G58" s="19">
+      <c r="G58" s="28">
         <v>98.049300000000002</v>
       </c>
-      <c r="H58" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="I58" s="18">
+      <c r="H58" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I58" s="27">
         <v>75</v>
       </c>
-      <c r="J58" s="19">
+      <c r="J58" s="28">
         <v>31.423069999999999</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="C59" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D59" s="18">
+      <c r="C59" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="27">
         <v>30.351800000000001</v>
       </c>
-      <c r="E59" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H59" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="I59" s="18">
+      <c r="E59" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H59" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I59" s="27">
         <v>75.010000000000005</v>
       </c>
-      <c r="J59" s="19">
+      <c r="J59" s="28">
         <v>13.556100000000001</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="8" t="s">
+      <c r="A60" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="C60" s="14">
+      <c r="C60" s="53">
         <v>1.06549</v>
       </c>
-      <c r="D60" s="14">
+      <c r="D60" s="54">
         <v>37.621200000000002</v>
       </c>
-      <c r="E60" s="14">
+      <c r="E60" s="54">
         <v>74.181899999999999</v>
       </c>
-      <c r="F60" s="14">
+      <c r="F60" s="54">
         <v>0.74149900000000002</v>
       </c>
-      <c r="G60" s="15">
+      <c r="G60" s="55">
         <v>37.999099999999999</v>
       </c>
-      <c r="H60" s="16">
+      <c r="H60" s="56">
         <v>82090</v>
       </c>
-      <c r="I60" s="14">
+      <c r="I60" s="54">
         <v>25.8</v>
       </c>
-      <c r="J60" s="15">
+      <c r="J60" s="55">
         <v>20.511690000000002</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="21" t="s">
+      <c r="A61" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B61" s="22" t="s">
+      <c r="B61" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="C61" s="23">
+      <c r="C61" s="37">
         <v>0.45821671539338998</v>
       </c>
-      <c r="D61" s="23">
+      <c r="D61" s="38">
         <v>37.187220363048098</v>
       </c>
-      <c r="E61" s="23">
+      <c r="E61" s="50">
         <v>110.83155642026099</v>
       </c>
-      <c r="F61" s="23">
+      <c r="F61" s="38">
         <v>0.41367695243338998</v>
       </c>
-      <c r="G61" s="24">
+      <c r="G61" s="51">
         <v>51.411399238949897</v>
       </c>
-      <c r="H61" s="25">
+      <c r="H61" s="41">
         <v>757163.01278449898</v>
       </c>
-      <c r="I61" s="23">
+      <c r="I61" s="38">
         <v>59.001566578517</v>
       </c>
-      <c r="J61" s="24">
+      <c r="J61" s="51">
         <v>27.345011031190701</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="31" t="s">
+      <c r="A62" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B62" s="32" t="s">
+      <c r="B62" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="C62" s="33">
+      <c r="C62" s="59">
         <v>2.2759305288654001</v>
       </c>
-      <c r="D62" s="33">
+      <c r="D62" s="60">
         <v>40.663962437921199</v>
       </c>
-      <c r="E62" s="33">
+      <c r="E62" s="60">
         <v>92.424815627749396</v>
       </c>
-      <c r="F62" s="33">
+      <c r="F62" s="60">
         <v>2.40357459792564</v>
       </c>
-      <c r="G62" s="34">
+      <c r="G62" s="61">
         <v>50.766554134706197</v>
       </c>
-      <c r="H62" s="35">
+      <c r="H62" s="62">
         <v>2503880.9421412102</v>
       </c>
-      <c r="I62" s="33">
+      <c r="I62" s="60">
         <v>61.864831693546698</v>
       </c>
-      <c r="J62" s="34">
+      <c r="J62" s="61">
         <v>28.402395358425</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="31" t="s">
+      <c r="A63" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B63" s="36" t="s">
+      <c r="B63" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="C63" s="37">
+      <c r="C63" s="64">
         <v>21.792136004329301</v>
       </c>
-      <c r="D63" s="37">
+      <c r="D63" s="65">
         <v>70.1847700189942</v>
       </c>
-      <c r="E63" s="37">
+      <c r="E63" s="60">
         <v>112.60554712315199</v>
       </c>
-      <c r="F63" s="37">
+      <c r="F63" s="65">
         <v>12.941638757372999</v>
       </c>
-      <c r="G63" s="38">
+      <c r="G63" s="61">
         <v>95.257394855438704</v>
       </c>
-      <c r="H63" s="39">
+      <c r="H63" s="66">
         <v>55035326.277089201</v>
       </c>
-      <c r="I63" s="37">
+      <c r="I63" s="65">
         <v>93.732414965055398</v>
       </c>
-      <c r="J63" s="38">
+      <c r="J63" s="61">
         <v>52.743707425910401</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="40" t="s">
+      <c r="A64" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="B64" s="41" t="s">
+      <c r="B64" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="C64" s="33">
+      <c r="C64" s="69">
         <v>18.346708940723399</v>
       </c>
-      <c r="D64" s="33">
+      <c r="D64" s="70">
         <v>78.106942147592804</v>
       </c>
-      <c r="E64" s="33">
+      <c r="E64" s="65">
         <v>110.09147611030301</v>
       </c>
-      <c r="F64" s="33">
+      <c r="F64" s="70">
         <v>13.7691705339442</v>
       </c>
-      <c r="G64" s="34">
+      <c r="G64" s="71">
         <v>85.643062015052195</v>
       </c>
-      <c r="H64" s="35">
+      <c r="H64" s="72">
         <v>4035105.26830647</v>
       </c>
-      <c r="I64" s="33">
+      <c r="I64" s="70">
         <v>89.098455592903505</v>
       </c>
-      <c r="J64" s="34">
+      <c r="J64" s="71">
         <v>58.188231226302499</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="40" t="s">
+      <c r="A65" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="B65" s="32" t="s">
+      <c r="B65" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="C65" s="42">
+      <c r="C65" s="73">
         <v>17.489303214437701</v>
       </c>
-      <c r="D65" s="42">
+      <c r="D65" s="74">
         <v>61.4998580870231</v>
       </c>
-      <c r="E65" s="42">
+      <c r="E65" s="74">
         <v>107.23079586761</v>
       </c>
-      <c r="F65" s="42">
+      <c r="F65" s="74">
         <v>6.7132858827676802</v>
       </c>
-      <c r="G65" s="43">
+      <c r="G65" s="75">
         <v>82.5572403352637</v>
       </c>
-      <c r="H65" s="44">
+      <c r="H65" s="76">
         <v>60041521.5018856</v>
       </c>
-      <c r="I65" s="42">
+      <c r="I65" s="74">
         <v>93.729229347077194</v>
       </c>
-      <c r="J65" s="43">
+      <c r="J65" s="75">
         <v>40.992451796917699</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="40" t="s">
+      <c r="A66" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="B66" s="45" t="s">
+      <c r="B66" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="C66" s="46">
+      <c r="C66" s="78">
         <v>18.421376007378399</v>
       </c>
-      <c r="D66" s="46">
+      <c r="D66" s="79">
         <v>64.889680641114694</v>
       </c>
-      <c r="E66" s="46">
+      <c r="E66" s="79">
         <v>109.092446490995</v>
       </c>
-      <c r="F66" s="46">
+      <c r="F66" s="79">
         <v>11.2430091714543</v>
       </c>
-      <c r="G66" s="47">
+      <c r="G66" s="80">
         <v>87.364370530687594</v>
       </c>
-      <c r="H66" s="48">
+      <c r="H66" s="81">
         <v>44623185.496165097</v>
       </c>
-      <c r="I66" s="46">
+      <c r="I66" s="79">
         <v>87.566230620953206</v>
       </c>
-      <c r="J66" s="47">
+      <c r="J66" s="80">
         <v>48.798104427191902</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="40" t="s">
+      <c r="A67" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="B67" s="49" t="s">
+      <c r="B67" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="C67" s="50">
+      <c r="C67" s="73">
         <v>2.6209112161638699</v>
       </c>
-      <c r="D67" s="50">
+      <c r="D67" s="74">
         <v>37.1112836838143</v>
       </c>
-      <c r="E67" s="50">
+      <c r="E67" s="74">
         <v>76.332445906859704</v>
       </c>
-      <c r="F67" s="50">
+      <c r="F67" s="74">
         <v>3.1541181926009001</v>
       </c>
-      <c r="G67" s="51">
+      <c r="G67" s="75">
         <v>43.966215709216002</v>
       </c>
-      <c r="H67" s="52">
+      <c r="H67" s="76">
         <v>4557916.1899467297</v>
       </c>
-      <c r="I67" s="50">
+      <c r="I67" s="74">
         <v>62.926791416041397</v>
       </c>
-      <c r="J67" s="51">
+      <c r="J67" s="75">
         <v>26.160281719162001</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="40" t="s">
+      <c r="A68" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="B68" s="32" t="s">
+      <c r="B68" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="C68" s="42">
+      <c r="C68" s="73">
         <v>3.11897183794833</v>
       </c>
-      <c r="D68" s="42">
+      <c r="D68" s="74">
         <v>45.6319691660457</v>
       </c>
-      <c r="E68" s="42">
+      <c r="E68" s="74">
         <v>104.691278282109</v>
       </c>
-      <c r="F68" s="42">
+      <c r="F68" s="74">
         <v>3.16811604544271</v>
       </c>
-      <c r="G68" s="43">
+      <c r="G68" s="75">
         <v>54.579535636870403</v>
       </c>
-      <c r="H68" s="44">
+      <c r="H68" s="76">
         <v>2166902.00394618</v>
       </c>
-      <c r="I68" s="42">
+      <c r="I68" s="74">
         <v>63.970524436671802</v>
       </c>
-      <c r="J68" s="43">
+      <c r="J68" s="75">
         <v>30.3552338651597</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="40" t="s">
+      <c r="A69" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="B69" s="32" t="s">
+      <c r="B69" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="C69" s="42">
+      <c r="C69" s="73">
         <v>0.85464819080550003</v>
       </c>
-      <c r="D69" s="42">
+      <c r="D69" s="74">
         <v>30.2333382102649</v>
       </c>
-      <c r="E69" s="42">
+      <c r="E69" s="74">
         <v>76.700688810234496</v>
       </c>
-      <c r="F69" s="42">
+      <c r="F69" s="74">
         <v>0.14976537357804001</v>
       </c>
-      <c r="G69" s="43">
+      <c r="G69" s="75">
         <v>37.025122797042798</v>
       </c>
-      <c r="H69" s="44">
+      <c r="H69" s="76">
         <v>6957400.2455459097</v>
       </c>
-      <c r="I69" s="42">
+      <c r="I69" s="74">
         <v>46.808625823296403</v>
       </c>
-      <c r="J69" s="43">
+      <c r="J69" s="75">
         <v>26.147645740404101</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="40" t="s">
+      <c r="A70" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="B70" s="32" t="s">
+      <c r="B70" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="C70" s="42">
+      <c r="C70" s="73">
         <v>0.47162752354878001</v>
       </c>
-      <c r="D70" s="42">
+      <c r="D70" s="74">
         <v>30.727566690837499</v>
       </c>
-      <c r="E70" s="42">
+      <c r="E70" s="74">
         <v>63.8722401447286</v>
       </c>
-      <c r="F70" s="42">
+      <c r="F70" s="74">
         <v>0.96087562330158005</v>
       </c>
-      <c r="G70" s="43">
+      <c r="G70" s="75">
         <v>27.302692137008599</v>
       </c>
-      <c r="H70" s="44">
+      <c r="H70" s="76">
         <v>125001.847034284</v>
       </c>
-      <c r="I70" s="42">
+      <c r="I70" s="74">
         <v>45.890517783690299</v>
       </c>
-      <c r="J70" s="43">
+      <c r="J70" s="75">
         <v>19.471305824523899</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="40" t="s">
+      <c r="A71" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="B71" s="32" t="s">
+      <c r="B71" s="63" t="s">
         <v>135</v>
       </c>
-      <c r="C71" s="42">
+      <c r="C71" s="73">
         <v>0.45821671539338998</v>
       </c>
-      <c r="D71" s="42">
+      <c r="D71" s="74">
         <v>37.187220363048098</v>
       </c>
-      <c r="E71" s="42">
+      <c r="E71" s="74">
         <v>110.83155642026099</v>
       </c>
-      <c r="F71" s="42">
+      <c r="F71" s="74">
         <v>0.41367695243338998</v>
       </c>
-      <c r="G71" s="43">
+      <c r="G71" s="75">
         <v>51.411399238949897</v>
       </c>
-      <c r="H71" s="44">
+      <c r="H71" s="76">
         <v>757163.01278449805</v>
       </c>
-      <c r="I71" s="42">
+      <c r="I71" s="74">
         <v>59.0015665785171</v>
       </c>
-      <c r="J71" s="43">
+      <c r="J71" s="75">
         <v>27.345011031190701</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="40" t="s">
+      <c r="A72" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="B72" s="32" t="s">
+      <c r="B72" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="C72" s="42">
+      <c r="C72" s="73">
         <v>0.60094313141708</v>
       </c>
-      <c r="D72" s="42">
+      <c r="D72" s="74">
         <v>26.121164097250201</v>
       </c>
-      <c r="E72" s="42">
+      <c r="E72" s="74">
         <v>72.924399450690004</v>
       </c>
-      <c r="F72" s="42">
+      <c r="F72" s="74">
         <v>0.45362915696327999</v>
       </c>
-      <c r="G72" s="43">
+      <c r="G72" s="75">
         <v>38.081494035956503</v>
       </c>
-      <c r="H72" s="44">
+      <c r="H72" s="76">
         <v>6145780.47403144</v>
       </c>
-      <c r="I72" s="42">
+      <c r="I72" s="74">
         <v>64.151678946512305</v>
       </c>
-      <c r="J72" s="43">
+      <c r="J72" s="75">
         <v>23.014065908429298</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="40" t="s">
+      <c r="A73" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="B73" s="32" t="s">
+      <c r="B73" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="C73" s="42">
+      <c r="C73" s="73">
         <v>1.16763506833422</v>
       </c>
-      <c r="D73" s="42">
+      <c r="D73" s="74">
         <v>36.8158285107708</v>
       </c>
-      <c r="E73" s="42">
+      <c r="E73" s="74">
         <v>84.180845074584198</v>
       </c>
-      <c r="F73" s="42">
+      <c r="F73" s="74">
         <v>0.91475809465798996</v>
       </c>
-      <c r="G73" s="43">
+      <c r="G73" s="75">
         <v>48.210419822403303</v>
       </c>
-      <c r="H73" s="44">
+      <c r="H73" s="76">
         <v>635932.56042586803</v>
       </c>
-      <c r="I73" s="42">
+      <c r="I73" s="74">
         <v>50.543004529557301</v>
       </c>
-      <c r="J73" s="43">
+      <c r="J73" s="75">
         <v>25.8336049191537</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="40" t="s">
+      <c r="A74" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="B74" s="32" t="s">
+      <c r="B74" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="C74" s="42">
+      <c r="C74" s="73">
         <v>8.6124578334952595</v>
       </c>
-      <c r="D74" s="42">
+      <c r="D74" s="74">
         <v>78.289603267909598</v>
       </c>
-      <c r="E74" s="42">
+      <c r="E74" s="74">
         <v>129.16420813734501</v>
       </c>
-      <c r="F74" s="42">
+      <c r="F74" s="74">
         <v>10.611579799113301</v>
       </c>
-      <c r="G74" s="43">
+      <c r="G74" s="75">
         <v>94.669043161775505</v>
       </c>
-      <c r="H74" s="44">
+      <c r="H74" s="76">
         <v>2903303.4954232699</v>
       </c>
-      <c r="I74" s="42">
+      <c r="I74" s="74">
         <v>88.881731899446393</v>
       </c>
-      <c r="J74" s="43">
+      <c r="J74" s="75">
         <v>51.355839804158599</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="40" t="s">
+      <c r="A75" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="B75" s="45" t="s">
+      <c r="B75" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="C75" s="46">
+      <c r="C75" s="64">
         <v>0.34373947857052001</v>
       </c>
-      <c r="D75" s="46">
+      <c r="D75" s="65">
         <v>31.052737566647401</v>
       </c>
-      <c r="E75" s="46">
+      <c r="E75" s="79">
         <v>58.938816044968902</v>
       </c>
-      <c r="F75" s="46">
+      <c r="F75" s="65">
         <v>0.26317913753934002</v>
       </c>
-      <c r="G75" s="47">
+      <c r="G75" s="80">
         <v>26.351043570698501</v>
       </c>
-      <c r="H75" s="48">
+      <c r="H75" s="66">
         <v>133820.418701407</v>
       </c>
-      <c r="I75" s="46">
+      <c r="I75" s="65">
         <v>43.847348620812703</v>
       </c>
-      <c r="J75" s="47">
+      <c r="J75" s="80">
         <v>17.348590000000002</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="40" t="s">
+      <c r="A76" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="B76" s="49" t="s">
+      <c r="B76" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="C76" s="50">
+      <c r="C76" s="83">
         <v>9.5580585906279207</v>
       </c>
-      <c r="D76" s="50">
+      <c r="D76" s="84">
         <v>73.630478084184304</v>
       </c>
-      <c r="E76" s="50">
+      <c r="E76" s="74">
         <v>135.1359185405</v>
       </c>
-      <c r="F76" s="50">
+      <c r="F76" s="84">
         <v>4.6425132576151897</v>
       </c>
-      <c r="G76" s="51">
+      <c r="G76" s="75">
         <v>105.221624454726</v>
       </c>
-      <c r="H76" s="52">
+      <c r="H76" s="85">
         <v>20957279.993768901</v>
       </c>
-      <c r="I76" s="50">
+      <c r="I76" s="84">
         <v>91.4309081951792</v>
       </c>
-      <c r="J76" s="51">
+      <c r="J76" s="75">
         <v>43.783230947781703</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="40" t="s">
+      <c r="A77" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="B77" s="32" t="s">
+      <c r="B77" s="63" t="s">
         <v>141</v>
       </c>
-      <c r="C77" s="42">
+      <c r="C77" s="73">
         <v>18.960285371455299</v>
       </c>
-      <c r="D77" s="42">
+      <c r="D77" s="74">
         <v>79.735521017613493</v>
       </c>
-      <c r="E77" s="42">
+      <c r="E77" s="74">
         <v>111.453635428027</v>
       </c>
-      <c r="F77" s="42">
+      <c r="F77" s="74">
         <v>12.2247972835595</v>
       </c>
-      <c r="G77" s="43">
+      <c r="G77" s="75">
         <v>86.090967203870804</v>
       </c>
-      <c r="H77" s="44">
+      <c r="H77" s="76">
         <v>5429563.27143961</v>
       </c>
-      <c r="I77" s="42">
+      <c r="I77" s="74">
         <v>90.6270108594791</v>
       </c>
-      <c r="J77" s="43">
+      <c r="J77" s="75">
         <v>62.260362065215503</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="40" t="s">
+      <c r="A78" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="B78" s="32" t="s">
+      <c r="B78" s="63" t="s">
         <v>142</v>
       </c>
-      <c r="C78" s="42">
+      <c r="C78" s="73">
         <v>38.4371587248311</v>
       </c>
-      <c r="D78" s="42">
+      <c r="D78" s="74">
         <v>88.931382168719495</v>
       </c>
-      <c r="E78" s="42">
+      <c r="E78" s="74">
         <v>123.771084516139</v>
       </c>
-      <c r="F78" s="42">
+      <c r="F78" s="74">
         <v>34.856883352232003</v>
       </c>
-      <c r="G78" s="43">
+      <c r="G78" s="75">
         <v>113.672029332449</v>
       </c>
-      <c r="H78" s="44">
+      <c r="H78" s="76">
         <v>1913218.8923281401</v>
       </c>
-      <c r="I78" s="42">
+      <c r="I78" s="74">
         <v>99</v>
       </c>
-      <c r="J78" s="43">
+      <c r="J78" s="75">
         <v>84.516005493724293</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="40" t="s">
+      <c r="A79" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="B79" s="45" t="s">
+      <c r="B79" s="77" t="s">
         <v>143</v>
       </c>
-      <c r="C79" s="46">
+      <c r="C79" s="78">
         <v>35.0213141962927</v>
       </c>
-      <c r="D79" s="46">
+      <c r="D79" s="79">
         <v>89.815598559029795</v>
       </c>
-      <c r="E79" s="46">
+      <c r="E79" s="79">
         <v>123.22582544477299</v>
       </c>
-      <c r="F79" s="46">
+      <c r="F79" s="79">
         <v>31.33473001422</v>
       </c>
-      <c r="G79" s="47">
+      <c r="G79" s="80">
         <v>133.9328151766</v>
       </c>
-      <c r="H79" s="48">
+      <c r="H79" s="81">
         <v>7984722.4888473405</v>
       </c>
-      <c r="I79" s="46">
+      <c r="I79" s="79">
         <v>95.819005511608395</v>
       </c>
-      <c r="J79" s="47">
+      <c r="J79" s="80">
         <v>80.8652401011216</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="40" t="s">
+      <c r="A80" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="B80" s="49" t="s">
+      <c r="B80" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="C80" s="50">
+      <c r="C80" s="73">
         <v>4.9272699842462799</v>
       </c>
-      <c r="D80" s="50">
+      <c r="D80" s="74">
         <v>48.022313526048499</v>
       </c>
-      <c r="E80" s="50">
+      <c r="E80" s="74">
         <v>91.084455188764295</v>
       </c>
-      <c r="F80" s="50">
+      <c r="F80" s="74">
         <v>6.1639898487356</v>
       </c>
-      <c r="G80" s="51">
+      <c r="G80" s="75">
         <v>56.023678754313401</v>
       </c>
-      <c r="H80" s="52">
+      <c r="H80" s="76">
         <v>854538.47538470605</v>
       </c>
-      <c r="I80" s="50">
+      <c r="I80" s="74">
         <v>65.534590596974098</v>
       </c>
-      <c r="J80" s="51">
+      <c r="J80" s="75">
         <v>38.195971740035603</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="40" t="s">
+      <c r="A81" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="B81" s="32" t="s">
+      <c r="B81" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="C81" s="42">
+      <c r="C81" s="73">
         <v>18.781291144893601</v>
       </c>
-      <c r="D81" s="42">
+      <c r="D81" s="74">
         <v>80.791020606167393</v>
       </c>
-      <c r="E81" s="42">
+      <c r="E81" s="74">
         <v>135.26157231097301</v>
       </c>
-      <c r="F81" s="42">
+      <c r="F81" s="74">
         <v>16.569276574973902</v>
       </c>
-      <c r="G81" s="43">
+      <c r="G81" s="75">
         <v>96.785798363004702</v>
       </c>
-      <c r="H81" s="44">
+      <c r="H81" s="76">
         <v>4146992.4018661301</v>
       </c>
-      <c r="I81" s="42">
+      <c r="I81" s="74">
         <v>75.350604807322497</v>
       </c>
-      <c r="J81" s="43">
+      <c r="J81" s="75">
         <v>63.1429241391047</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="40" t="s">
+      <c r="A82" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="B82" s="32" t="s">
+      <c r="B82" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="C82" s="42">
+      <c r="C82" s="73">
         <v>2.0391427610987498</v>
       </c>
-      <c r="D82" s="42">
+      <c r="D82" s="74">
         <v>39.8847079479741</v>
       </c>
-      <c r="E82" s="42">
+      <c r="E82" s="74">
         <v>92.5708783302141</v>
       </c>
-      <c r="F82" s="42">
+      <c r="F82" s="74">
         <v>2.0137715918517798</v>
       </c>
-      <c r="G82" s="43">
+      <c r="G82" s="75">
         <v>50.233656082794496</v>
       </c>
-      <c r="H82" s="44">
+      <c r="H82" s="76">
         <v>2691971.8788549802</v>
       </c>
-      <c r="I82" s="42">
+      <c r="I82" s="74">
         <v>61.540252788375597</v>
       </c>
-      <c r="J82" s="43">
+      <c r="J82" s="75">
         <v>27.651120247470399</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="40" t="s">
+      <c r="A83" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="B83" s="45" t="s">
+      <c r="B83" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="C83" s="46">
+      <c r="C83" s="64">
         <v>22.049328545915301</v>
       </c>
-      <c r="D83" s="46">
+      <c r="D83" s="65">
         <v>69.325432928158193</v>
       </c>
-      <c r="E83" s="46">
+      <c r="E83" s="79">
         <v>110.714707327243</v>
       </c>
-      <c r="F83" s="46">
+      <c r="F83" s="65">
         <v>12.638874449183101</v>
       </c>
-      <c r="G83" s="47">
+      <c r="G83" s="80">
         <v>95.127448038021001</v>
       </c>
-      <c r="H83" s="48">
+      <c r="H83" s="66">
         <v>58785123.768361203</v>
       </c>
-      <c r="I83" s="46">
+      <c r="I83" s="65">
         <v>94.816052476427998</v>
       </c>
-      <c r="J83" s="47">
+      <c r="J83" s="80">
         <v>51.897279232490902</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="40" t="s">
+      <c r="A84" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="B84" s="49" t="s">
+      <c r="B84" s="82" t="s">
         <v>148</v>
       </c>
-      <c r="C84" s="50">
+      <c r="C84" s="83">
         <v>0.25193606055098999</v>
       </c>
-      <c r="D84" s="50">
+      <c r="D84" s="84">
         <v>23.618350978609801</v>
       </c>
-      <c r="E84" s="50">
+      <c r="E84" s="74">
         <v>62.416108679376997</v>
       </c>
-      <c r="F84" s="50">
+      <c r="F84" s="84">
         <v>0.43320535660991999</v>
       </c>
-      <c r="G84" s="51">
+      <c r="G84" s="75">
         <v>31.4492461350988</v>
       </c>
-      <c r="H84" s="52">
+      <c r="H84" s="85">
         <v>538354.39619936596</v>
       </c>
-      <c r="I84" s="50">
+      <c r="I84" s="84">
         <v>49.462592149138302</v>
       </c>
-      <c r="J84" s="51">
+      <c r="J84" s="75">
         <v>16.049787294921099</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="40" t="s">
+      <c r="A85" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="B85" s="32" t="s">
+      <c r="B85" s="86" t="s">
         <v>149</v>
       </c>
-      <c r="C85" s="42">
+      <c r="C85" s="73">
         <v>3.7527232045455001</v>
       </c>
-      <c r="D85" s="42">
+      <c r="D85" s="74">
         <v>17.694800000000001</v>
       </c>
-      <c r="E85" s="42">
+      <c r="E85" s="74">
         <v>60.088054915632597</v>
       </c>
-      <c r="F85" s="42">
+      <c r="F85" s="74">
         <v>3.82264219074289</v>
       </c>
-      <c r="G85" s="43">
+      <c r="G85" s="75">
         <v>38.690298408412701</v>
       </c>
-      <c r="H85" s="44">
+      <c r="H85" s="76">
         <v>345295.780453732</v>
       </c>
-      <c r="I85" s="42">
+      <c r="I85" s="74">
         <v>65.919259358446496</v>
       </c>
-      <c r="J85" s="43">
+      <c r="J85" s="75">
         <v>18.0816824822281</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="40" t="s">
+      <c r="A86" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="B86" s="32" t="s">
+      <c r="B86" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="C86" s="42">
+      <c r="C86" s="73">
         <v>3.4413075028969802</v>
       </c>
-      <c r="D86" s="42">
+      <c r="D86" s="74">
         <v>48.901249635334402</v>
       </c>
-      <c r="E86" s="42">
+      <c r="E86" s="74">
         <v>105.135010681233</v>
       </c>
-      <c r="F86" s="42">
+      <c r="F86" s="74">
         <v>3.2577479493871802</v>
       </c>
-      <c r="G86" s="43">
+      <c r="G86" s="75">
         <v>56.780173407112898</v>
       </c>
-      <c r="H86" s="44">
+      <c r="H86" s="76">
         <v>3427853.5252483902</v>
       </c>
-      <c r="I86" s="42">
+      <c r="I86" s="74">
         <v>68.0174892231109</v>
       </c>
-      <c r="J86" s="43">
+      <c r="J86" s="75">
         <v>34.684892839969002</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="40" t="s">
+      <c r="A87" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="B87" s="32" t="s">
+      <c r="B87" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="C87" s="42">
+      <c r="C87" s="73">
         <v>4.5773890704936004</v>
       </c>
-      <c r="D87" s="42">
+      <c r="D87" s="74">
         <v>51.0810004848056</v>
       </c>
-      <c r="E87" s="42">
+      <c r="E87" s="74">
         <v>94.000811157661204</v>
       </c>
-      <c r="F87" s="42">
+      <c r="F87" s="74">
         <v>3.3800677563161901</v>
       </c>
-      <c r="G87" s="43">
+      <c r="G87" s="75">
         <v>63.701214545274397</v>
       </c>
-      <c r="H87" s="44">
+      <c r="H87" s="76">
         <v>64650289.950797297</v>
       </c>
-      <c r="I87" s="42">
+      <c r="I87" s="74">
         <v>91.703514040349901</v>
       </c>
-      <c r="J87" s="43">
+      <c r="J87" s="75">
         <v>27.046082743411901</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="40" t="s">
+      <c r="A88" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="B88" s="32" t="s">
+      <c r="B88" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="C88" s="42">
+      <c r="C88" s="73">
         <v>3.75384984047998</v>
       </c>
-      <c r="D88" s="42">
+      <c r="D88" s="74">
         <v>75.398886282939301</v>
       </c>
-      <c r="E88" s="42">
+      <c r="E88" s="74">
         <v>164.93414795427501</v>
       </c>
-      <c r="F88" s="42">
+      <c r="F88" s="74">
         <v>4.1702174597608002</v>
       </c>
-      <c r="G88" s="43">
+      <c r="G88" s="75">
         <v>126.934282616723</v>
       </c>
-      <c r="H88" s="44">
+      <c r="H88" s="76">
         <v>1919344.9652172499</v>
       </c>
-      <c r="I88" s="42">
+      <c r="I88" s="74">
         <v>90.849044859066495</v>
       </c>
-      <c r="J88" s="43">
+      <c r="J88" s="75">
         <v>50.861088136589899</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="40" t="s">
+      <c r="A89" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="B89" s="32" t="s">
+      <c r="B89" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="C89" s="42">
+      <c r="C89" s="73">
         <v>29.688609219603901</v>
       </c>
-      <c r="D89" s="42">
+      <c r="D89" s="74">
         <v>77.177771996951506</v>
       </c>
-      <c r="E89" s="42">
+      <c r="E89" s="74">
         <v>124.60578554953899</v>
       </c>
-      <c r="F89" s="42">
+      <c r="F89" s="74">
         <v>12.1877153916673</v>
       </c>
-      <c r="G89" s="43">
+      <c r="G89" s="75">
         <v>103.44207516467399</v>
       </c>
-      <c r="H89" s="44">
+      <c r="H89" s="76">
         <v>50154281.344929501</v>
       </c>
-      <c r="I89" s="42">
+      <c r="I89" s="74">
         <v>95.028678903918902</v>
       </c>
-      <c r="J89" s="43">
+      <c r="J89" s="75">
         <v>61.369241605020797</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="40" t="s">
+      <c r="A90" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="B90" s="45" t="s">
+      <c r="B90" s="77" t="s">
         <v>154</v>
       </c>
-      <c r="C90" s="46">
+      <c r="C90" s="78">
         <v>37.954999798929499</v>
       </c>
-      <c r="D90" s="46">
+      <c r="D90" s="79">
         <v>92.549712458638396</v>
       </c>
-      <c r="E90" s="46">
+      <c r="E90" s="79">
         <v>126.32893557194799</v>
       </c>
-      <c r="F90" s="46">
+      <c r="F90" s="79">
         <v>33.565906001185702</v>
       </c>
-      <c r="G90" s="47">
+      <c r="G90" s="80">
         <v>144.11746576746901</v>
       </c>
-      <c r="H90" s="48">
+      <c r="H90" s="81">
         <v>9550113.8873866498</v>
       </c>
-      <c r="I90" s="46">
+      <c r="I90" s="79">
         <v>98.753689560205103</v>
       </c>
-      <c r="J90" s="47">
+      <c r="J90" s="80">
         <v>85.608998063436502</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="40" t="s">
+      <c r="A91" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="B91" s="49" t="s">
+      <c r="B91" s="63" t="s">
         <v>155</v>
       </c>
-      <c r="C91" s="50">
+      <c r="C91" s="73">
         <v>0.49218402503691</v>
       </c>
-      <c r="D91" s="50">
+      <c r="D91" s="74">
         <v>26.9897179945769</v>
       </c>
-      <c r="E91" s="50">
+      <c r="E91" s="74">
         <v>69.487022747134304</v>
       </c>
-      <c r="F91" s="50">
+      <c r="F91" s="74">
         <v>0.42746178118062</v>
       </c>
-      <c r="G91" s="51">
+      <c r="G91" s="75">
         <v>34.379538146337801</v>
       </c>
-      <c r="H91" s="52">
+      <c r="H91" s="76">
         <v>473911.08058193797</v>
       </c>
-      <c r="I91" s="50">
+      <c r="I91" s="74">
         <v>47.818424507521698</v>
       </c>
-      <c r="J91" s="51">
+      <c r="J91" s="75">
         <v>17.5372652501012</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="40" t="s">
+      <c r="A92" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="B92" s="32" t="s">
+      <c r="B92" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="C92" s="42">
+      <c r="C92" s="73">
         <v>5.1454450565507699</v>
       </c>
-      <c r="D92" s="42">
+      <c r="D92" s="74">
         <v>41.150722346286202</v>
       </c>
-      <c r="E92" s="42">
+      <c r="E92" s="74">
         <v>95.952217038429097</v>
       </c>
-      <c r="F92" s="42">
+      <c r="F92" s="74">
         <v>0.55732328373146001</v>
       </c>
-      <c r="G92" s="43">
+      <c r="G92" s="75">
         <v>64.691521813380803</v>
       </c>
-      <c r="H92" s="44">
+      <c r="H92" s="76">
         <v>3368439.67500656</v>
       </c>
-      <c r="I92" s="42">
+      <c r="I92" s="74">
         <v>73.570594864983406</v>
       </c>
-      <c r="J92" s="43">
+      <c r="J92" s="75">
         <v>24.115790150398698</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="40" t="s">
+      <c r="A93" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="B93" s="32" t="s">
+      <c r="B93" s="63" t="s">
         <v>157</v>
       </c>
-      <c r="C93" s="42">
+      <c r="C93" s="73">
         <v>8.0648148295505706</v>
       </c>
-      <c r="D93" s="42">
+      <c r="D93" s="74">
         <v>52.989212415540202</v>
       </c>
-      <c r="E93" s="42">
+      <c r="E93" s="74">
         <v>127.233101414907</v>
       </c>
-      <c r="F93" s="42">
+      <c r="F93" s="74">
         <v>17.886351307483199</v>
       </c>
-      <c r="G93" s="43">
+      <c r="G93" s="75">
         <v>77.306304168426195</v>
       </c>
-      <c r="H93" s="44">
+      <c r="H93" s="76">
         <v>73459.802193924799</v>
       </c>
-      <c r="I93" s="42">
+      <c r="I93" s="74">
         <v>63.511649936189599</v>
       </c>
-      <c r="J93" s="43">
+      <c r="J93" s="75">
         <v>52.338893395915001</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="40" t="s">
+      <c r="A94" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="B94" s="32" t="s">
+      <c r="B94" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="C94" s="42">
+      <c r="C94" s="73">
         <v>13.7613849190435</v>
       </c>
-      <c r="D94" s="42">
+      <c r="D94" s="74">
         <v>70.412800201209294</v>
       </c>
-      <c r="E94" s="42">
+      <c r="E94" s="74">
         <v>100.568598009252</v>
       </c>
-      <c r="F94" s="42">
+      <c r="F94" s="74">
         <v>15.9237014819367</v>
       </c>
-      <c r="G94" s="43">
+      <c r="G94" s="75">
         <v>77.777775165533299</v>
       </c>
-      <c r="H94" s="44">
+      <c r="H94" s="76">
         <v>9211766.0795869194</v>
       </c>
-      <c r="I94" s="42">
+      <c r="I94" s="74">
         <v>69.751536042339694</v>
       </c>
-      <c r="J94" s="43">
+      <c r="J94" s="75">
         <v>57.281613711199199</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="40" t="s">
+      <c r="A95" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="B95" s="32" t="s">
+      <c r="B95" s="63" t="s">
         <v>159</v>
       </c>
-      <c r="C95" s="42">
+      <c r="C95" s="73">
         <v>0.43446674797682999</v>
       </c>
-      <c r="D95" s="42">
+      <c r="D95" s="74">
         <v>22.695087195848998</v>
       </c>
-      <c r="E95" s="42">
+      <c r="E95" s="74">
         <v>70.666229879869206</v>
       </c>
-      <c r="F95" s="42">
+      <c r="F95" s="74">
         <v>0.61548321064614997</v>
       </c>
-      <c r="G95" s="43">
+      <c r="G95" s="75">
         <v>36.8793135304389</v>
       </c>
-      <c r="H95" s="44">
+      <c r="H95" s="76">
         <v>614597.21041183197</v>
       </c>
-      <c r="I95" s="42">
+      <c r="I95" s="74">
         <v>55.950807145904598</v>
       </c>
-      <c r="J95" s="43">
+      <c r="J95" s="75">
         <v>16.697953028109399</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="40" t="s">
+      <c r="A96" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="B96" s="45" t="s">
+      <c r="B96" s="63" t="s">
         <v>160</v>
       </c>
-      <c r="C96" s="46">
+      <c r="C96" s="64">
         <v>18.416162364393301</v>
       </c>
-      <c r="D96" s="46">
+      <c r="D96" s="65">
         <v>72.309677603163905</v>
       </c>
-      <c r="E96" s="46">
+      <c r="E96" s="79">
         <v>97.200063497819002</v>
       </c>
-      <c r="F96" s="46">
+      <c r="F96" s="65">
         <v>9.88803838040762</v>
       </c>
-      <c r="G96" s="47">
+      <c r="G96" s="80">
         <v>83.708434559368399</v>
       </c>
-      <c r="H96" s="48">
+      <c r="H96" s="66">
         <v>1228652.6323267601</v>
       </c>
-      <c r="I96" s="46">
+      <c r="I96" s="65">
         <v>72.452250181351104</v>
       </c>
-      <c r="J96" s="47">
+      <c r="J96" s="80">
         <v>40.562181078157899</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="40" t="s">
+      <c r="A97" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="B97" s="49" t="s">
+      <c r="B97" s="82" t="s">
         <v>161</v>
       </c>
-      <c r="C97" s="50">
+      <c r="C97" s="83">
         <v>0.74365790083581995</v>
       </c>
-      <c r="D97" s="50">
+      <c r="D97" s="84">
         <v>31.716168783370399</v>
       </c>
-      <c r="E97" s="50">
+      <c r="E97" s="74">
         <v>90.716979988223599</v>
       </c>
-      <c r="F97" s="50">
+      <c r="F97" s="84">
         <v>0.61131116539662</v>
       </c>
-      <c r="G97" s="51">
+      <c r="G97" s="75">
         <v>41.970693533472499</v>
       </c>
-      <c r="H97" s="52">
+      <c r="H97" s="85">
         <v>2346172.20438655</v>
       </c>
-      <c r="I97" s="50">
+      <c r="I97" s="84">
         <v>57.498311168908401</v>
       </c>
-      <c r="J97" s="51">
+      <c r="J97" s="75">
         <v>25.267971338376999</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="40" t="s">
+      <c r="A98" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="B98" s="45" t="s">
+      <c r="B98" s="77" t="s">
         <v>162</v>
       </c>
-      <c r="C98" s="46">
+      <c r="C98" s="78">
         <v>5.1165272480443198</v>
       </c>
-      <c r="D98" s="46">
+      <c r="D98" s="79">
         <v>45.591838241716196</v>
       </c>
-      <c r="E98" s="46">
+      <c r="E98" s="79">
         <v>104.153043134095</v>
       </c>
-      <c r="F98" s="46">
+      <c r="F98" s="79">
         <v>6.02128439516878</v>
       </c>
-      <c r="G98" s="47">
+      <c r="G98" s="80">
         <v>66.887438418513398</v>
       </c>
-      <c r="H98" s="48">
+      <c r="H98" s="81">
         <v>4377624.6633513505</v>
       </c>
-      <c r="I98" s="46">
+      <c r="I98" s="79">
         <v>80.413810560134095</v>
       </c>
-      <c r="J98" s="47">
+      <c r="J98" s="80">
         <v>29.6264260164983</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="53"/>
-      <c r="B99" s="54"/>
-      <c r="C99" s="35"/>
-      <c r="D99" s="35"/>
-      <c r="E99" s="35"/>
-      <c r="F99" s="35"/>
-      <c r="G99" s="35"/>
-      <c r="H99" s="35"/>
-      <c r="I99" s="35"/>
-      <c r="J99" s="35"/>
+      <c r="A99" s="87"/>
+      <c r="B99" s="88"/>
+      <c r="C99" s="89"/>
+      <c r="D99" s="89"/>
+      <c r="E99" s="89"/>
+      <c r="F99" s="89"/>
+      <c r="G99" s="89"/>
+      <c r="H99" s="89"/>
+      <c r="I99" s="89"/>
+      <c r="J99" s="89"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C100" s="55"/>
-      <c r="D100" s="55"/>
-      <c r="E100" s="55"/>
-      <c r="F100" s="55"/>
-      <c r="G100" s="55"/>
-      <c r="H100" s="55"/>
-      <c r="I100" s="55"/>
-      <c r="J100" s="55"/>
+      <c r="C100" s="90"/>
+      <c r="D100" s="90"/>
+      <c r="E100" s="90"/>
+      <c r="F100" s="90"/>
+      <c r="G100" s="90"/>
+      <c r="H100" s="90"/>
+      <c r="I100" s="90"/>
+      <c r="J100" s="90"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C101" s="55"/>
-      <c r="D101" s="55"/>
-      <c r="E101" s="55"/>
-      <c r="F101" s="55"/>
-      <c r="G101" s="55"/>
-      <c r="H101" s="55"/>
-      <c r="I101" s="55"/>
-      <c r="J101" s="55"/>
+      <c r="C101" s="90"/>
+      <c r="D101" s="90"/>
+      <c r="E101" s="90"/>
+      <c r="F101" s="90"/>
+      <c r="G101" s="90"/>
+      <c r="H101" s="90"/>
+      <c r="I101" s="90"/>
+      <c r="J101" s="90"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C102" s="55"/>
-      <c r="D102" s="55"/>
-      <c r="E102" s="55"/>
-      <c r="F102" s="55"/>
-      <c r="G102" s="55"/>
-      <c r="H102" s="55"/>
-      <c r="I102" s="55"/>
-      <c r="J102" s="55"/>
+      <c r="C102" s="90"/>
+      <c r="D102" s="90"/>
+      <c r="E102" s="90"/>
+      <c r="F102" s="90"/>
+      <c r="G102" s="90"/>
+      <c r="H102" s="90"/>
+      <c r="I102" s="90"/>
+      <c r="J102" s="90"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C103" s="55"/>
-      <c r="D103" s="55"/>
-      <c r="E103" s="55"/>
-      <c r="F103" s="55"/>
-      <c r="G103" s="55"/>
-      <c r="H103" s="55"/>
-      <c r="I103" s="55"/>
-      <c r="J103" s="55"/>
+      <c r="C103" s="90"/>
+      <c r="D103" s="90"/>
+      <c r="E103" s="90"/>
+      <c r="F103" s="90"/>
+      <c r="G103" s="90"/>
+      <c r="H103" s="90"/>
+      <c r="I103" s="90"/>
+      <c r="J103" s="90"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C104" s="55"/>
-      <c r="D104" s="55"/>
-      <c r="E104" s="55"/>
-      <c r="F104" s="55"/>
-      <c r="G104" s="55"/>
-      <c r="H104" s="55"/>
-      <c r="I104" s="55"/>
-      <c r="J104" s="55"/>
+      <c r="C104" s="90"/>
+      <c r="D104" s="90"/>
+      <c r="E104" s="90"/>
+      <c r="F104" s="90"/>
+      <c r="G104" s="90"/>
+      <c r="H104" s="90"/>
+      <c r="I104" s="90"/>
+      <c r="J104" s="90"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C105" s="55"/>
-      <c r="D105" s="55"/>
-      <c r="E105" s="55"/>
-      <c r="F105" s="55"/>
-      <c r="G105" s="55"/>
-      <c r="H105" s="55"/>
-      <c r="I105" s="55"/>
-      <c r="J105" s="55"/>
+      <c r="C105" s="90"/>
+      <c r="D105" s="90"/>
+      <c r="E105" s="90"/>
+      <c r="F105" s="90"/>
+      <c r="G105" s="90"/>
+      <c r="H105" s="90"/>
+      <c r="I105" s="90"/>
+      <c r="J105" s="90"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C106" s="55"/>
-      <c r="D106" s="55"/>
-      <c r="E106" s="55"/>
-      <c r="F106" s="55"/>
-      <c r="G106" s="55"/>
-      <c r="H106" s="55"/>
-      <c r="I106" s="55"/>
-      <c r="J106" s="55"/>
+      <c r="C106" s="90"/>
+      <c r="D106" s="90"/>
+      <c r="E106" s="90"/>
+      <c r="F106" s="90"/>
+      <c r="G106" s="90"/>
+      <c r="H106" s="90"/>
+      <c r="I106" s="90"/>
+      <c r="J106" s="90"/>
     </row>
     <row r="107" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="56" t="s">
+      <c r="B107" s="91" t="s">
         <v>168</v>
       </c>
-      <c r="C107" s="55"/>
-      <c r="D107" s="55"/>
-      <c r="E107" s="55"/>
-      <c r="F107" s="55"/>
-      <c r="G107" s="55"/>
-      <c r="H107" s="55"/>
-      <c r="I107" s="55"/>
-      <c r="J107" s="55"/>
+      <c r="C107" s="90"/>
+      <c r="D107" s="90"/>
+      <c r="E107" s="90"/>
+      <c r="F107" s="90"/>
+      <c r="G107" s="90"/>
+      <c r="H107" s="90"/>
+      <c r="I107" s="90"/>
+      <c r="J107" s="90"/>
     </row>
     <row r="108" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="56"/>
-      <c r="C108" s="55"/>
-      <c r="D108" s="55"/>
-      <c r="E108" s="55"/>
-      <c r="F108" s="55"/>
-      <c r="G108" s="55"/>
-      <c r="H108" s="55"/>
-      <c r="I108" s="55"/>
-      <c r="J108" s="55"/>
+      <c r="B108" s="91"/>
+      <c r="C108" s="90"/>
+      <c r="D108" s="90"/>
+      <c r="E108" s="90"/>
+      <c r="F108" s="90"/>
+      <c r="G108" s="90"/>
+      <c r="H108" s="90"/>
+      <c r="I108" s="90"/>
+      <c r="J108" s="90"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C109" s="55"/>
-      <c r="D109" s="55"/>
-      <c r="E109" s="55"/>
-      <c r="F109" s="55"/>
-      <c r="G109" s="55"/>
-      <c r="H109" s="55"/>
-      <c r="I109" s="55"/>
-      <c r="J109" s="55"/>
+        <v>170</v>
+      </c>
+      <c r="C109" s="90"/>
+      <c r="D109" s="90"/>
+      <c r="E109" s="90"/>
+      <c r="F109" s="90"/>
+      <c r="G109" s="90"/>
+      <c r="H109" s="90"/>
+      <c r="I109" s="90"/>
+      <c r="J109" s="90"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C110" s="90"/>
+      <c r="D110" s="90"/>
+      <c r="E110" s="90"/>
+      <c r="F110" s="90"/>
+      <c r="G110" s="90"/>
+      <c r="H110" s="90"/>
+      <c r="I110" s="90"/>
+      <c r="J110" s="90"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B111" s="94" t="s">
         <v>172</v>
       </c>
-      <c r="C110" s="55"/>
-      <c r="D110" s="55"/>
-      <c r="E110" s="55"/>
-      <c r="F110" s="55"/>
-      <c r="G110" s="55"/>
-      <c r="H110" s="55"/>
-      <c r="I110" s="55"/>
-      <c r="J110" s="55"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B111" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C111" s="55"/>
-      <c r="D111" s="55"/>
-      <c r="E111" s="55"/>
-      <c r="F111" s="55"/>
-      <c r="G111" s="55"/>
-      <c r="H111" s="55"/>
-      <c r="I111" s="55"/>
-      <c r="J111" s="55"/>
+      <c r="C111" s="90"/>
+      <c r="D111" s="90"/>
+      <c r="E111" s="90"/>
+      <c r="F111" s="90"/>
+      <c r="G111" s="90"/>
+      <c r="H111" s="90"/>
+      <c r="I111" s="90"/>
+      <c r="J111" s="90"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C112" s="55"/>
-      <c r="D112" s="55"/>
-      <c r="E112" s="55"/>
-      <c r="F112" s="55"/>
-      <c r="G112" s="55"/>
-      <c r="H112" s="55"/>
-      <c r="I112" s="55"/>
-      <c r="J112" s="55"/>
+      <c r="C112" s="90"/>
+      <c r="D112" s="90"/>
+      <c r="E112" s="90"/>
+      <c r="F112" s="90"/>
+      <c r="G112" s="90"/>
+      <c r="H112" s="90"/>
+      <c r="I112" s="90"/>
+      <c r="J112" s="90"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B113" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C113" s="55"/>
-      <c r="D113" s="55"/>
-      <c r="E113" s="55"/>
-      <c r="F113" s="55"/>
-      <c r="G113" s="55"/>
-      <c r="H113" s="55"/>
-      <c r="I113" s="55"/>
-      <c r="J113" s="55"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="90"/>
+      <c r="D113" s="90"/>
+      <c r="E113" s="90"/>
+      <c r="F113" s="90"/>
+      <c r="G113" s="90"/>
+      <c r="H113" s="90"/>
+      <c r="I113" s="90"/>
+      <c r="J113" s="90"/>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
-      <c r="C114" s="55"/>
-      <c r="D114" s="55"/>
-      <c r="E114" s="55"/>
-      <c r="F114" s="55"/>
-      <c r="G114" s="55"/>
-      <c r="H114" s="55"/>
-      <c r="I114" s="55"/>
-      <c r="J114" s="55"/>
+      <c r="C114" s="90"/>
+      <c r="D114" s="90"/>
+      <c r="E114" s="90"/>
+      <c r="F114" s="90"/>
+      <c r="G114" s="90"/>
+      <c r="H114" s="90"/>
+      <c r="I114" s="90"/>
+      <c r="J114" s="90"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{B33786B5-C901-4875-AB74-70B0572EF186}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{85CD58BA-8099-4E95-BCBA-F9ACC61BEFF3}"/>
-    <hyperlink ref="B107" r:id="rId3" xr:uid="{F9AD011D-8EFF-4CA0-A94C-E605AD74D5C8}"/>
-    <hyperlink ref="B113" r:id="rId4" xr:uid="{AAEB5D2E-303C-4E6E-8D11-3AF296314AF1}"/>
-    <hyperlink ref="B112" r:id="rId5" xr:uid="{88A54C2F-1815-435D-AA6C-C4D14B9A13A2}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{C4E4FC46-3F44-40CD-8AA4-36E4E8E4D219}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{D4704B19-73E2-4D47-92A9-F51A28CBF824}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{8AE1F914-49CF-4582-AE6E-F35ACE8B0D67}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{EA533A1D-9AFE-42C0-B5B5-0439F9BC6906}"/>
+    <hyperlink ref="B112" r:id="rId4" xr:uid="{9473FAF9-D6E3-48C3-A820-DCA5F760B5AC}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{7101D4DA-B0B5-41FF-8E3B-3B061BCA8728}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{0AB468B8-5693-44CA-8222-62684CEE8B81}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K0000FF Restricted Use - À usage restreint</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/AfDD_2024_Annex_Table_Tab11.xlsx
+++ b/AfDD_2024_Annex_Table_Tab11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F20BCE39-8751-4459-B6B3-04A0DE173991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1FBD577-F19D-4166-8ADF-3EC32564972A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{50108D56-A637-4ADB-8E47-AF25D26F7F8D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E62AC77-74FE-45DE-BF11-1AF5C6F9065A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab11" sheetId="1" r:id="rId1"/>
@@ -1494,7 +1494,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B1F5D6-BC5F-47DE-8D5D-823D7EC38829}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498710DC-8C66-4FA5-8BCA-6682EECB828C}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4825,12 +4825,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{D4704B19-73E2-4D47-92A9-F51A28CBF824}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{8AE1F914-49CF-4582-AE6E-F35ACE8B0D67}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{EA533A1D-9AFE-42C0-B5B5-0439F9BC6906}"/>
-    <hyperlink ref="B112" r:id="rId4" xr:uid="{9473FAF9-D6E3-48C3-A820-DCA5F760B5AC}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{7101D4DA-B0B5-41FF-8E3B-3B061BCA8728}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{0AB468B8-5693-44CA-8222-62684CEE8B81}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{DF7ACD55-3A90-49F1-8A42-9F0038B520D1}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{3308DD0C-C924-48DA-BD78-0AA1C775903E}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{810A7C11-0B92-4F37-8A46-6CBA95F9CB08}"/>
+    <hyperlink ref="B112" r:id="rId4" xr:uid="{D24C376E-D41B-4BCA-B166-6891818AAA2E}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{DB467EA8-CAEB-4319-BA17-85AAB176EC78}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{DD5FEF5E-5134-45E9-946D-5A63E82E4B10}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2024_Annex_Table_Tab11.xlsx
+++ b/AfDD_2024_Annex_Table_Tab11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{558B1530-B493-4B04-A0C4-8BD6B934600A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5862AA9D-AB90-41E5-BFDC-29C5EEA63630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{3B0E7739-0836-448E-ACAC-0C63C2E73EAD}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{70FEF8BB-B9ED-4329-A2F5-E5CF85DC4956}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab11" sheetId="1" r:id="rId1"/>
@@ -1460,7 +1460,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08B342C9-CEA1-4C15-842E-FFBD7F016BEF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4159F5-CAD8-408E-A898-3274A5D0A2A6}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4793,12 +4793,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{906BCD7F-7D79-431E-B195-55A6CBEE92AE}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{806AEE9A-1DFB-42A2-A2ED-443A792F5723}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{560BEFFD-EF72-4EE4-B8CF-34E4F35CDB9C}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{CDFDA58A-2D76-4E38-9BCE-C51BB7713C97}"/>
-    <hyperlink ref="B112" r:id="rId5" xr:uid="{CC0EBA0F-2710-4498-92BD-601BC267ACAE}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{54D56AB7-41C4-4BC4-B344-A2AD6F286087}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{64595E85-D032-4B46-8A04-54E1B092EB93}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{8D7D5BD3-C665-47DE-AEAA-E7CBF8D10E72}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{3D319B81-8B9A-439A-8ADD-60E41BD238E9}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{B04F3830-DE6B-4F15-9ED5-4D0E7188AEED}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{0F6A9A62-8098-4BFA-8950-F9DBECDCBC8F}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{F61E7AD3-199D-432C-B7B2-FBF86CC0D22B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>
